--- a/biology/Médecine/Mésentère/Mésentère.xlsx
+++ b/biology/Médecine/Mésentère/Mésentère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9sent%C3%A8re</t>
+          <t>Mésentère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les mammifères, le mésentère est un repli du péritoine reliant les anses de l'intestin grêle (le jéjunum et l'iléon) à la paroi postérieure de l'abdomen.
 En gastronomie, le mésentère de jeune bovin est un abat apprécié sous le nom de « fraise de veau » (le terme fraise ne convient pas pour l'intestin du porc). Il peut, notamment, être utilisé pour la fabrication d'andouillettes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9sent%C3%A8re</t>
+          <t>Mésentère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mésentère désigne toute zone de jonction entre deux cavités, l'une droite et l'autre gauche. Cette zone de jonction est en fait un mésenchyme bordé de deux assises épithéliales. 
 Lorsque la zone de jonction se situe entre deux cavités, l'une antérieure et l'autre postérieure, on parle de dissépiment.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9sent%C3%A8re</t>
+          <t>Mésentère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Anatomie humaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mésentère se présente sous la forme d'un éventail et contient 15 à 16 larges replis. On lui attribue 2 faces : antérieure (ou droite) et postérieure (ou gauche).
 L'artère mésentérique supérieure se trouve dans le mésentère pour aller vasculariser l'intestin grêle ainsi que la partie droite du côlon (tandis que la partie gauche du côlon est irriguée par les vaisseaux mésentériques inférieurs). 
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9sent%C3%A8re</t>
+          <t>Mésentère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Pathologies du mésentère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kyste pur :
 lymphangiome kystique (uniloculaire ou multiloculaire) ;
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9sent%C3%A8re</t>
+          <t>Mésentère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Gastronomie, mésentère et fraise de veau</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la charcuterie et de la cuisine, le mésentère de jeune bovin est un abat appelé « fraise de veau ». Ce terme n'est pas employé pour le même organe chez le porc. Il y a cependant ambiguïté. En 1690, le Dictionnaire universel de Furetière précisait « Fraise de veau est le mésentère. C'est une membrane grasse qui soutient les boyaux, autour de laquelle ils sont entortillés ». Les éditions des années 1820 du Nouveau vocabulaire français des De Wailly reprenaient cette définition : « Mésentère, membrane placée en forme de fraise, le long des intestins ; on l'appelle fraise dans le veau ». Il en va autrement avec le Code des usages de la charcuterie, qui fait référence pour la profession et la DGCCRF (édition 2016) : « On entend par « fraise de veau » l'ensemble de l'intestin grêle et du gros intestin, avec ou sans ratis » (ratis dérive de ratisser : la graisse détachée du boyau).
 </t>
